--- a/data/technology_patents/files/epo_env_unity.xlsx
+++ b/data/technology_patents/files/epo_env_unity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD58642-261C-D94B-9B16-FF1551F900E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E55DE06-35CD-E241-83FE-AAB2E4896115}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{76D87A32-3008-824A-84AE-60EFF3556BDF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$55</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="6">
   <si>
     <t>Country</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>World</t>
-  </si>
-  <si>
-    <t>BRIC</t>
   </si>
 </sst>
 </file>
@@ -410,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B773E6-802F-4F48-BD3A-F50DD25923FD}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A73" sqref="A56:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,206 +1023,8 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56">
-        <v>1999</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57">
-        <v>2000</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58">
-        <v>2001</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59">
-        <v>2002</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60">
-        <v>2003</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61">
-        <v>2004</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62">
-        <v>2005</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63">
-        <v>2006</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64">
-        <v>2007</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65">
-        <v>2008</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66">
-        <v>2009</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67">
-        <v>2010</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68">
-        <v>2011</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69">
-        <v>2012</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70">
-        <v>2013</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71">
-        <v>2014</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72">
-        <v>2015</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73">
-        <v>2016</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C73" xr:uid="{501D451D-A6F2-2D4A-9C41-A4EEBE893BF2}"/>
+  <autoFilter ref="A1:C55" xr:uid="{501D451D-A6F2-2D4A-9C41-A4EEBE893BF2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>